--- a/auto/new_data/6_IMD競爭力指標_usa.xlsx
+++ b/auto/new_data/6_IMD競爭力指標_usa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,122 +436,184 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>terms</t>
+          <t>Economic Performance</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>Government Efficiency</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>Business Efficiency</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>Infrastructure</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>score_2024</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Economic Performance</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>55.5</t>
+          <t>67.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['37', '37', '28', '33']</t>
+          <t>73.7</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Government Efficiency</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['50', '46', '45', '44']</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Business Efficiency</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['32', '32', '23', '28']</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31.1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['49', '49', '49', '52']</t>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
